--- a/biology/Mycologie/Chalciporus_piperatus/Chalciporus_piperatus.xlsx
+++ b/biology/Mycologie/Chalciporus_piperatus/Chalciporus_piperatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet poivré
 Chalciporus piperatus, le Bolet poivré, autrefois Boletus piperatus, est une espèce de champignons du genre Chalciporus dans la famille des Boletaceae. Il est caractérisé par ses couleurs brunâtres et sa saveur poivrée.
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chalciporus piperatus (Bull.) Bataille[1]
-Synonymes
-Boletus piperatus Bull. 1790 (basionyme)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalciporus piperatus (Bull.) Bataille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus piperatus Bull. 1790 (basionyme)
 Ceriomyces piperatus (Bull.) Murrill 1909
 Ixocomus piperatus (Bull.) Quél. 1888
 Leccinum piperatum (Bull.) Gray 1821
@@ -525,43 +574,113 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chalciporus_piperatus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chalciporus_piperatus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau : pulviné, d'un diamètre de 1,5 à 6 cm, il est convexe et devient avec l'âge subétalé. Habituellement sec (il peut aussi être viscidule), glabre ou presque, il présente divers tons de brun-jaune ou de brun-rouge, avec une marge unie. Sa chair est jaune pâle, devenant un peu plus foncée à la coupe. Son odeur est indistincte mais sa saveur poivrée est bien perceptible.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chapeau : pulviné, d'un diamètre de 1,5 à 6 cm, il est convexe et devient avec l'âge subétalé. Habituellement sec (il peut aussi être viscidule), glabre ou presque, il présente divers tons de brun-jaune ou de brun-rouge, avec une marge unie. Sa chair est jaune pâle, devenant un peu plus foncée à la coupe. Son odeur est indistincte mais sa saveur poivrée est bien perceptible.
 Hyménophore : les tubes sont brun-rouille ou brun-rougeâtre, immuables ou brunissant un peu au froissement
 Pores : un peu anguleux et parfois radiants depuis le pied, petits à larges, 0,5–2 mm de largeur. La sporée est brun rouille.
 Couche de tubes : concolore à la face poroïde, 0,3–1 cm de longueur.
 Stipe : le pied va de 3 à 8 sur 0,4 à 1 cm. Il est égal à atténué vers la base, plein, glabre ou un peu velouté, brun-rouge sur fond jaune, souvent couvert de mycélium jaune à la base. Le voile partiel est absent.
-Chair : ferme, un peu spongieuse avec l'âge, crème dans le chapeau et jaune vif à la base du pied. Saveur nettement poivrée. Odeur faible[2].
-Réactions chimiques
-brun rougeâtre foncé au KOH ou NH4OH; vert grisâtre pâle au FeSO4 sur la cuticule
-gris-violet au KOH ou NH4OH; vert grisâtre pâle au FeSO4 sur la chair
-Caractéristiques microscopiques
-Ses spores sont elliptiques, lisses, jaunâtres, mesurant 8,5-11,5 x 3,5-5 µm[2].
+Chair : ferme, un peu spongieuse avec l'âge, crème dans le chapeau et jaune vif à la base du pied. Saveur nettement poivrée. Odeur faible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>brun rougeâtre foncé au KOH ou NH4OH; vert grisâtre pâle au FeSO4 sur la cuticule
+gris-violet au KOH ou NH4OH; vert grisâtre pâle au FeSO4 sur la chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chalciporus_piperatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont elliptiques, lisses, jaunâtres, mesurant 8,5-11,5 x 3,5-5 µm.
 </t>
         </is>
       </c>
